--- a/raw_data/Productivity_bark_beetles.xlsx
+++ b/raw_data/Productivity_bark_beetles.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/progy_student_ubc_ca/Documents/Projects/bark_beetles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurttrzcinski/Kurt/MPB/r/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{78AD498C-658E-46E5-AD4A-295B9605EB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02128A53-06D3-4A3F-B072-CA7483975955}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F854C73D-B342-CE4C-BF6B-AF4421D4DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="3110" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27300" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specimens" sheetId="1" r:id="rId1"/>
     <sheet name="sites" sheetId="2" r:id="rId2"/>
-    <sheet name="logs" sheetId="3" r:id="rId3"/>
-    <sheet name="discrepancies" sheetId="4" r:id="rId4"/>
-    <sheet name="specimens_vials" sheetId="5" r:id="rId5"/>
-    <sheet name="metadata" sheetId="6" r:id="rId6"/>
+    <sheet name="UTM_update" sheetId="7" r:id="rId3"/>
+    <sheet name="logs" sheetId="3" r:id="rId4"/>
+    <sheet name="logs_metadat" sheetId="8" r:id="rId5"/>
+    <sheet name="discrepancies" sheetId="4" r:id="rId6"/>
+    <sheet name="specimens_vials" sheetId="5" r:id="rId7"/>
+    <sheet name="metadata" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="765">
   <si>
     <t>log</t>
   </si>
@@ -2182,7 +2184,166 @@
     <t xml:space="preserve">"larva_UD#" = unidentifiable larva. entries with the same number in the name are likely the same species </t>
   </si>
   <si>
-    <t>zone</t>
+    <t>siteID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> easting</t>
+  </si>
+  <si>
+    <t>UTM_zone</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>log ID</t>
+  </si>
+  <si>
+    <t>site name</t>
+  </si>
+  <si>
+    <t>site id</t>
+  </si>
+  <si>
+    <t>UTM northing</t>
+  </si>
+  <si>
+    <t>UTM easting</t>
+  </si>
+  <si>
+    <t>UTM zone</t>
+  </si>
+  <si>
+    <t>logitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>dbh_live_cm</t>
+  </si>
+  <si>
+    <t>the diameter at breast height of the tree prior to cutting</t>
+  </si>
+  <si>
+    <t>dbh_interim</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>dbh_cm_compiled2</t>
+  </si>
+  <si>
+    <t>attack_den</t>
+  </si>
+  <si>
+    <t>the number of mountain pine beetle pitch tubes per tree</t>
+  </si>
+  <si>
+    <t>disk_circum</t>
+  </si>
+  <si>
+    <t>circumference of sample tree cross-section</t>
+  </si>
+  <si>
+    <t>disk_dia</t>
+  </si>
+  <si>
+    <t>diameter of sample tree cross-section</t>
+  </si>
+  <si>
+    <t>estimated age of tree</t>
+  </si>
+  <si>
+    <t>mean_phloem_mm</t>
+  </si>
+  <si>
+    <t>mean phloem width measured from ?? Points</t>
+  </si>
+  <si>
+    <t>growth_5avg_mm</t>
+  </si>
+  <si>
+    <t>mean tree growth interval over past 5 years</t>
+  </si>
+  <si>
+    <t>growth_10avg_mm</t>
+  </si>
+  <si>
+    <t>mean tree growth interval over past 10 years</t>
+  </si>
+  <si>
+    <t>log_length_cm</t>
+  </si>
+  <si>
+    <t>length of the bolt cut from the tree</t>
+  </si>
+  <si>
+    <t>area_m2</t>
+  </si>
+  <si>
+    <t>estimated total surface area of the bolt</t>
+  </si>
+  <si>
+    <t>mpb_exit_holes_s1</t>
+  </si>
+  <si>
+    <t>the number of mountain pine beetle exit holes in the first haphazard 20cm x 20cm sample of the bolt</t>
+  </si>
+  <si>
+    <t>mpb_exit_holes_s2</t>
+  </si>
+  <si>
+    <t>the number of mountain pine beetle exit holes in the second haphazard 20cm x 20cm sample of the bolt</t>
+  </si>
+  <si>
+    <t>other_exit_holes_s1</t>
+  </si>
+  <si>
+    <t>the number of other exit holes in the first haphazard 20cm x 20cm sample of the bolt</t>
+  </si>
+  <si>
+    <t>other_exit_holes_s2</t>
+  </si>
+  <si>
+    <t>the number of other exit holes in the second haphazard 20cm x 20cm sample of the bolt</t>
+  </si>
+  <si>
+    <t>wheather the tree was baited with a mountain pine beetle pheromone bait or not</t>
+  </si>
+  <si>
+    <t>wheather the tree had visable burn scars on it</t>
+  </si>
+  <si>
+    <t>mpb_m2</t>
+  </si>
+  <si>
+    <t>the number of mountain pine beetles in specimens vials divided by the estimated total surface area of the bolt</t>
+  </si>
+  <si>
+    <t>management_zone</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2355,7 @@
     <numFmt numFmtId="165" formatCode="mm\.dd"/>
     <numFmt numFmtId="166" formatCode="m\.yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2205,11 +2366,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2221,11 +2384,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2249,8 +2414,20 @@
       <sz val="10"/>
       <name val="Arial (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Lucida Grande&quot;"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2267,6 +2444,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2297,7 +2480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2337,6 +2520,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2562,14 +2748,14 @@
       <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="12.6328125" style="16"/>
-    <col min="8" max="8" width="21.1796875" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="12.6328125" style="16"/>
+    <col min="1" max="7" width="12.6640625" style="16"/>
+    <col min="8" max="8" width="21.1640625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +2787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.5">
+    <row r="2" spans="1:11" ht="13">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -2634,7 +2820,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="12.5">
+    <row r="3" spans="1:11" ht="13">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -2666,7 +2852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.5">
+    <row r="4" spans="1:11" ht="13">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.5">
+    <row r="5" spans="1:11" ht="13">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.5">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2740,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.5">
+    <row r="7" spans="1:11" ht="13">
       <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
@@ -2769,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.5">
+    <row r="8" spans="1:11" ht="13">
       <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.5">
+    <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
@@ -2827,7 +3013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.5">
+    <row r="10" spans="1:11" ht="13">
       <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
@@ -2850,7 +3036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.5">
+    <row r="11" spans="1:11" ht="13">
       <c r="A11" s="15" t="s">
         <v>32</v>
       </c>
@@ -2875,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.5">
+    <row r="12" spans="1:11" ht="13">
       <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
@@ -2904,7 +3090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.5">
+    <row r="13" spans="1:11" ht="13">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
@@ -2933,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.5">
+    <row r="14" spans="1:11" ht="13">
       <c r="A14" s="15" t="s">
         <v>38</v>
       </c>
@@ -2965,7 +3151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.5">
+    <row r="15" spans="1:11" ht="13">
       <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
@@ -2990,7 +3176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.5">
+    <row r="16" spans="1:11" ht="13">
       <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
@@ -3019,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.5">
+    <row r="17" spans="1:10" ht="13">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.5">
+    <row r="18" spans="1:10" ht="13">
       <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
@@ -3075,7 +3261,7 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="12.5">
+    <row r="19" spans="1:10" ht="13">
       <c r="A19" s="15" t="s">
         <v>52</v>
       </c>
@@ -3104,7 +3290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.5">
+    <row r="20" spans="1:10" ht="13">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.5">
+    <row r="21" spans="1:10" ht="13">
       <c r="A21" s="15" t="s">
         <v>52</v>
       </c>
@@ -3162,7 +3348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.5">
+    <row r="22" spans="1:10" ht="13">
       <c r="A22" s="15" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.5">
+    <row r="23" spans="1:10" ht="13">
       <c r="A23" s="15" t="s">
         <v>52</v>
       </c>
@@ -3213,7 +3399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.5">
+    <row r="24" spans="1:10" ht="13">
       <c r="A24" s="15" t="s">
         <v>60</v>
       </c>
@@ -3242,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.5">
+    <row r="25" spans="1:10" ht="13">
       <c r="A25" s="15" t="s">
         <v>60</v>
       </c>
@@ -3271,7 +3457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.5">
+    <row r="26" spans="1:10" ht="13">
       <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
@@ -3299,7 +3485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.5">
+    <row r="27" spans="1:10" ht="13">
       <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
@@ -3322,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.5">
+    <row r="28" spans="1:10" ht="13">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
@@ -3348,7 +3534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.5">
+    <row r="29" spans="1:10" ht="13">
       <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
@@ -3377,7 +3563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.5">
+    <row r="30" spans="1:10" ht="13">
       <c r="A30" s="15" t="s">
         <v>66</v>
       </c>
@@ -3406,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.5">
+    <row r="31" spans="1:10" ht="13">
       <c r="A31" s="15" t="s">
         <v>67</v>
       </c>
@@ -3435,7 +3621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.5">
+    <row r="32" spans="1:10" ht="13">
       <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
@@ -3464,7 +3650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.5">
+    <row r="33" spans="1:10" ht="13">
       <c r="A33" s="15" t="s">
         <v>67</v>
       </c>
@@ -3487,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.5">
+    <row r="34" spans="1:10" ht="13">
       <c r="A34" s="15" t="s">
         <v>67</v>
       </c>
@@ -3517,7 +3703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.5">
+    <row r="35" spans="1:10" ht="13">
       <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
@@ -3546,7 +3732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.5">
+    <row r="36" spans="1:10" ht="13">
       <c r="A36" s="15" t="s">
         <v>67</v>
       </c>
@@ -3573,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.5">
+    <row r="37" spans="1:10" ht="13">
       <c r="A37" s="15" t="s">
         <v>67</v>
       </c>
@@ -3597,7 +3783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.5">
+    <row r="38" spans="1:10" ht="13">
       <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
@@ -3624,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.5">
+    <row r="39" spans="1:10" ht="13">
       <c r="A39" s="15" t="s">
         <v>67</v>
       </c>
@@ -3647,7 +3833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.5">
+    <row r="40" spans="1:10" ht="13">
       <c r="A40" s="15" t="s">
         <v>76</v>
       </c>
@@ -3676,7 +3862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.5">
+    <row r="41" spans="1:10" ht="13">
       <c r="A41" s="15" t="s">
         <v>76</v>
       </c>
@@ -3705,7 +3891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.5">
+    <row r="42" spans="1:10" ht="13">
       <c r="A42" s="15" t="s">
         <v>76</v>
       </c>
@@ -3728,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.5">
+    <row r="43" spans="1:10" ht="13">
       <c r="A43" s="15" t="s">
         <v>76</v>
       </c>
@@ -3751,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.5">
+    <row r="44" spans="1:10" ht="13">
       <c r="A44" s="15" t="s">
         <v>76</v>
       </c>
@@ -3777,7 +3963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.5">
+    <row r="45" spans="1:10" ht="13">
       <c r="A45" s="15" t="s">
         <v>78</v>
       </c>
@@ -3806,7 +3992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.5">
+    <row r="46" spans="1:10" ht="13">
       <c r="A46" s="15" t="s">
         <v>78</v>
       </c>
@@ -3832,7 +4018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="12.5">
+    <row r="47" spans="1:10" ht="13">
       <c r="A47" s="15" t="s">
         <v>78</v>
       </c>
@@ -3858,7 +4044,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.5">
+    <row r="48" spans="1:10" ht="13">
       <c r="A48" s="15" t="s">
         <v>78</v>
       </c>
@@ -3884,7 +4070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="12.5">
+    <row r="49" spans="1:27" ht="13">
       <c r="A49" s="15" t="s">
         <v>81</v>
       </c>
@@ -3916,7 +4102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="12.5">
+    <row r="50" spans="1:27" ht="13">
       <c r="A50" s="15" t="s">
         <v>81</v>
       </c>
@@ -3939,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="12.5">
+    <row r="51" spans="1:27" ht="13">
       <c r="A51" s="15" t="s">
         <v>81</v>
       </c>
@@ -3959,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="12.5">
+    <row r="52" spans="1:27" ht="13">
       <c r="A52" s="15" t="s">
         <v>84</v>
       </c>
@@ -3988,7 +4174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="12.5">
+    <row r="53" spans="1:27" ht="13">
       <c r="A53" s="15" t="s">
         <v>84</v>
       </c>
@@ -4020,7 +4206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="12.5">
+    <row r="54" spans="1:27" ht="13">
       <c r="A54" s="15" t="s">
         <v>84</v>
       </c>
@@ -4052,7 +4238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="12.5">
+    <row r="55" spans="1:27" ht="13">
       <c r="A55" s="15" t="s">
         <v>84</v>
       </c>
@@ -4075,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="12.5">
+    <row r="56" spans="1:27" ht="13">
       <c r="A56" s="15" t="s">
         <v>84</v>
       </c>
@@ -4101,7 +4287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="12.5">
+    <row r="57" spans="1:27" ht="13">
       <c r="A57" s="15" t="s">
         <v>84</v>
       </c>
@@ -4127,7 +4313,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="12.5">
+    <row r="58" spans="1:27" ht="13">
       <c r="A58" s="15" t="s">
         <v>84</v>
       </c>
@@ -4154,7 +4340,7 @@
       </c>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:27" ht="12.5">
+    <row r="59" spans="1:27" ht="13">
       <c r="A59" s="15" t="s">
         <v>84</v>
       </c>
@@ -4180,7 +4366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="12.5">
+    <row r="60" spans="1:27" ht="13">
       <c r="A60" s="19" t="s">
         <v>84</v>
       </c>
@@ -4226,7 +4412,7 @@
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
     </row>
-    <row r="61" spans="1:27" ht="12.5">
+    <row r="61" spans="1:27" ht="13">
       <c r="A61" s="15" t="s">
         <v>84</v>
       </c>
@@ -4251,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="12.5">
+    <row r="62" spans="1:27" ht="13">
       <c r="A62" s="15" t="s">
         <v>96</v>
       </c>
@@ -4281,7 +4467,7 @@
       </c>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="1:27" ht="12.5">
+    <row r="63" spans="1:27" ht="13">
       <c r="A63" s="15" t="s">
         <v>96</v>
       </c>
@@ -4310,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="12.5">
+    <row r="64" spans="1:27" ht="13">
       <c r="A64" s="17" t="s">
         <v>96</v>
       </c>
@@ -4354,7 +4540,7 @@
       <c r="Z64" s="17"/>
       <c r="AA64" s="17"/>
     </row>
-    <row r="65" spans="1:10" ht="12.5">
+    <row r="65" spans="1:10" ht="13">
       <c r="A65" s="15" t="s">
         <v>96</v>
       </c>
@@ -4380,7 +4566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.5">
+    <row r="66" spans="1:10" ht="13">
       <c r="A66" s="15" t="s">
         <v>96</v>
       </c>
@@ -4406,7 +4592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.5">
+    <row r="67" spans="1:10" ht="13">
       <c r="A67" s="15" t="s">
         <v>96</v>
       </c>
@@ -4432,7 +4618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="12.5">
+    <row r="68" spans="1:10" ht="13">
       <c r="A68" s="15" t="s">
         <v>96</v>
       </c>
@@ -4455,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.5">
+    <row r="69" spans="1:10" ht="13">
       <c r="A69" s="15" t="s">
         <v>104</v>
       </c>
@@ -4484,7 +4670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="12.5">
+    <row r="70" spans="1:10" ht="13">
       <c r="A70" s="15" t="s">
         <v>104</v>
       </c>
@@ -4513,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12.5">
+    <row r="71" spans="1:10" ht="13">
       <c r="A71" s="15" t="s">
         <v>104</v>
       </c>
@@ -4542,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.5">
+    <row r="72" spans="1:10" ht="13">
       <c r="A72" s="15" t="s">
         <v>104</v>
       </c>
@@ -4565,7 +4751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12.5">
+    <row r="73" spans="1:10" ht="13">
       <c r="A73" s="15" t="s">
         <v>104</v>
       </c>
@@ -4588,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12.5">
+    <row r="74" spans="1:10" ht="13">
       <c r="A74" s="15" t="s">
         <v>104</v>
       </c>
@@ -4617,7 +4803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="12.5">
+    <row r="75" spans="1:10" ht="13">
       <c r="A75" s="15" t="s">
         <v>104</v>
       </c>
@@ -4644,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.5">
+    <row r="76" spans="1:10" ht="13">
       <c r="A76" s="15" t="s">
         <v>104</v>
       </c>
@@ -4665,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.5">
+    <row r="77" spans="1:10" ht="13">
       <c r="A77" s="15" t="s">
         <v>104</v>
       </c>
@@ -4686,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.5">
+    <row r="78" spans="1:10" ht="13">
       <c r="A78" s="15" t="s">
         <v>111</v>
       </c>
@@ -4709,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.5">
+    <row r="79" spans="1:10" ht="13">
       <c r="A79" s="15" t="s">
         <v>111</v>
       </c>
@@ -4738,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.5">
+    <row r="80" spans="1:10" ht="13">
       <c r="A80" s="15" t="s">
         <v>111</v>
       </c>
@@ -4761,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="12.5">
+    <row r="81" spans="1:27" ht="13">
       <c r="A81" s="15" t="s">
         <v>111</v>
       </c>
@@ -4787,7 +4973,7 @@
       </c>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:27" ht="12.5">
+    <row r="82" spans="1:27" ht="13">
       <c r="A82" s="15" t="s">
         <v>111</v>
       </c>
@@ -4815,7 +5001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="12.5">
+    <row r="83" spans="1:27" ht="13">
       <c r="A83" s="17" t="s">
         <v>111</v>
       </c>
@@ -4861,7 +5047,7 @@
       <c r="Z83" s="17"/>
       <c r="AA83" s="17"/>
     </row>
-    <row r="84" spans="1:27" ht="12.5">
+    <row r="84" spans="1:27" ht="13">
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
@@ -4890,7 +5076,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="12.5">
+    <row r="85" spans="1:27" ht="13">
       <c r="A85" s="15" t="s">
         <v>111</v>
       </c>
@@ -4913,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="12.5">
+    <row r="86" spans="1:27" ht="13">
       <c r="A86" s="15" t="s">
         <v>116</v>
       </c>
@@ -4934,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="12.5">
+    <row r="87" spans="1:27" ht="13">
       <c r="A87" s="15" t="s">
         <v>116</v>
       </c>
@@ -4957,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="12.5">
+    <row r="88" spans="1:27" ht="13">
       <c r="A88" s="15" t="s">
         <v>116</v>
       </c>
@@ -4986,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="12.5">
+    <row r="89" spans="1:27" ht="13">
       <c r="A89" s="15" t="s">
         <v>116</v>
       </c>
@@ -5015,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="12.5">
+    <row r="90" spans="1:27" ht="13">
       <c r="A90" s="15" t="s">
         <v>118</v>
       </c>
@@ -5044,7 +5230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="12.5">
+    <row r="91" spans="1:27" ht="13">
       <c r="A91" s="15" t="s">
         <v>118</v>
       </c>
@@ -5067,7 +5253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="12.5">
+    <row r="92" spans="1:27" ht="13">
       <c r="A92" s="15" t="s">
         <v>118</v>
       </c>
@@ -5090,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="12.5">
+    <row r="93" spans="1:27" ht="13">
       <c r="A93" s="15" t="s">
         <v>118</v>
       </c>
@@ -5107,7 +5293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="12.5">
+    <row r="94" spans="1:27" ht="13">
       <c r="A94" s="15" t="s">
         <v>121</v>
       </c>
@@ -5136,7 +5322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="12.5">
+    <row r="95" spans="1:27" ht="13">
       <c r="A95" s="15" t="s">
         <v>121</v>
       </c>
@@ -5165,7 +5351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="12.5">
+    <row r="96" spans="1:27" ht="13">
       <c r="A96" s="15" t="s">
         <v>121</v>
       </c>
@@ -5185,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="12.5">
+    <row r="97" spans="1:10" ht="13">
       <c r="A97" s="15" t="s">
         <v>121</v>
       </c>
@@ -5208,7 +5394,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.5">
+    <row r="98" spans="1:10" ht="13">
       <c r="A98" s="15" t="s">
         <v>121</v>
       </c>
@@ -5234,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.5">
+    <row r="99" spans="1:10" ht="13">
       <c r="A99" s="15" t="s">
         <v>121</v>
       </c>
@@ -5257,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.5">
+    <row r="100" spans="1:10" ht="13">
       <c r="A100" s="15" t="s">
         <v>121</v>
       </c>
@@ -5283,7 +5469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.5">
+    <row r="101" spans="1:10" ht="13">
       <c r="A101" s="15" t="s">
         <v>121</v>
       </c>
@@ -5311,7 +5497,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="12.5">
+    <row r="102" spans="1:10" ht="13">
       <c r="A102" s="15" t="s">
         <v>121</v>
       </c>
@@ -5334,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="12.5">
+    <row r="103" spans="1:10" ht="13">
       <c r="A103" s="15" t="s">
         <v>135</v>
       </c>
@@ -5363,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="12.5">
+    <row r="104" spans="1:10" ht="13">
       <c r="A104" s="15" t="s">
         <v>135</v>
       </c>
@@ -5389,7 +5575,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="12.5">
+    <row r="105" spans="1:10" ht="13">
       <c r="A105" s="15" t="s">
         <v>135</v>
       </c>
@@ -5416,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="12.5">
+    <row r="106" spans="1:10" ht="13">
       <c r="A106" s="15" t="s">
         <v>135</v>
       </c>
@@ -5442,7 +5628,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="12.5">
+    <row r="107" spans="1:10" ht="13">
       <c r="A107" s="15" t="s">
         <v>140</v>
       </c>
@@ -5471,7 +5657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="12.5">
+    <row r="108" spans="1:10" ht="13">
       <c r="A108" s="15" t="s">
         <v>140</v>
       </c>
@@ -5500,7 +5686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="12.5">
+    <row r="109" spans="1:10" ht="13">
       <c r="A109" s="15" t="s">
         <v>140</v>
       </c>
@@ -5523,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="12.5">
+    <row r="110" spans="1:10" ht="13">
       <c r="A110" s="15" t="s">
         <v>140</v>
       </c>
@@ -5548,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="12.5">
+    <row r="111" spans="1:10" ht="13">
       <c r="A111" s="15" t="s">
         <v>141</v>
       </c>
@@ -5577,7 +5763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="12.5">
+    <row r="112" spans="1:10" ht="13">
       <c r="A112" s="15" t="s">
         <v>141</v>
       </c>
@@ -5600,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="12.5">
+    <row r="113" spans="1:27" ht="13">
       <c r="A113" s="15" t="s">
         <v>141</v>
       </c>
@@ -5626,7 +5812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="12.5">
+    <row r="114" spans="1:27" ht="13">
       <c r="A114" s="15" t="s">
         <v>142</v>
       </c>
@@ -5655,7 +5841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="12.5">
+    <row r="115" spans="1:27" ht="13">
       <c r="A115" s="15" t="s">
         <v>142</v>
       </c>
@@ -5828,7 +6014,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="12.5">
+    <row r="122" spans="1:27" ht="13">
       <c r="A122" s="19" t="s">
         <v>142</v>
       </c>
@@ -5872,7 +6058,7 @@
       <c r="Z122" s="19"/>
       <c r="AA122" s="19"/>
     </row>
-    <row r="123" spans="1:27" ht="12.5">
+    <row r="123" spans="1:27" ht="13">
       <c r="A123" s="15" t="s">
         <v>150</v>
       </c>
@@ -5901,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="12.5">
+    <row r="124" spans="1:27" ht="13">
       <c r="A124" s="15" t="s">
         <v>150</v>
       </c>
@@ -5930,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="12.5">
+    <row r="125" spans="1:27" ht="13">
       <c r="A125" s="15" t="s">
         <v>150</v>
       </c>
@@ -5953,7 +6139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="12.5">
+    <row r="126" spans="1:27" ht="13">
       <c r="A126" s="15" t="s">
         <v>150</v>
       </c>
@@ -5976,7 +6162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="12.5">
+    <row r="127" spans="1:27" ht="13">
       <c r="A127" s="15" t="s">
         <v>150</v>
       </c>
@@ -6005,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="12.5">
+    <row r="128" spans="1:27" ht="13">
       <c r="A128" s="15" t="s">
         <v>150</v>
       </c>
@@ -6028,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="12.5">
+    <row r="129" spans="1:10" ht="13">
       <c r="A129" s="15" t="s">
         <v>150</v>
       </c>
@@ -6051,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="12.5">
+    <row r="130" spans="1:10" ht="13">
       <c r="A130" s="15" t="s">
         <v>150</v>
       </c>
@@ -6074,7 +6260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="12.5">
+    <row r="131" spans="1:10" ht="13">
       <c r="A131" s="15" t="s">
         <v>153</v>
       </c>
@@ -6103,7 +6289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="12.5">
+    <row r="132" spans="1:10" ht="13">
       <c r="A132" s="15" t="s">
         <v>153</v>
       </c>
@@ -6132,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="12.5">
+    <row r="133" spans="1:10" ht="13">
       <c r="A133" s="15" t="s">
         <v>153</v>
       </c>
@@ -6158,7 +6344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="12.5">
+    <row r="134" spans="1:10" ht="13">
       <c r="A134" s="15" t="s">
         <v>153</v>
       </c>
@@ -6184,7 +6370,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="12.5">
+    <row r="135" spans="1:10" ht="13">
       <c r="A135" s="15" t="s">
         <v>153</v>
       </c>
@@ -6213,7 +6399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="12.5">
+    <row r="136" spans="1:10" ht="13">
       <c r="A136" s="15" t="s">
         <v>160</v>
       </c>
@@ -6245,7 +6431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="12.5">
+    <row r="137" spans="1:10" ht="13">
       <c r="A137" s="15" t="s">
         <v>160</v>
       </c>
@@ -6277,7 +6463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="12.5">
+    <row r="138" spans="1:10" ht="13">
       <c r="A138" s="15" t="s">
         <v>160</v>
       </c>
@@ -6305,7 +6491,7 @@
       </c>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" ht="12.5">
+    <row r="139" spans="1:10" ht="13">
       <c r="A139" s="15" t="s">
         <v>160</v>
       </c>
@@ -6331,7 +6517,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="12.5">
+    <row r="140" spans="1:10" ht="13">
       <c r="A140" s="15" t="s">
         <v>160</v>
       </c>
@@ -6360,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="12.5">
+    <row r="141" spans="1:10" ht="13">
       <c r="A141" s="15" t="s">
         <v>164</v>
       </c>
@@ -6392,7 +6578,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="12.5">
+    <row r="142" spans="1:10" ht="13">
       <c r="A142" s="15" t="s">
         <v>164</v>
       </c>
@@ -6424,7 +6610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="12.5">
+    <row r="143" spans="1:10" ht="13">
       <c r="A143" s="15" t="s">
         <v>164</v>
       </c>
@@ -6456,7 +6642,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="12.5">
+    <row r="144" spans="1:10" ht="13">
       <c r="A144" s="15" t="s">
         <v>164</v>
       </c>
@@ -6488,7 +6674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="12.5">
+    <row r="145" spans="1:11" ht="13">
       <c r="A145" s="15" t="s">
         <v>164</v>
       </c>
@@ -6520,7 +6706,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.5">
+    <row r="146" spans="1:11" ht="13">
       <c r="A146" s="15" t="s">
         <v>164</v>
       </c>
@@ -6552,7 +6738,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.5">
+    <row r="147" spans="1:11" ht="13">
       <c r="A147" s="15" t="s">
         <v>164</v>
       </c>
@@ -6584,7 +6770,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.5">
+    <row r="148" spans="1:11" ht="13">
       <c r="A148" s="15" t="s">
         <v>164</v>
       </c>
@@ -6616,7 +6802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.5">
+    <row r="149" spans="1:11" ht="13">
       <c r="A149" s="15" t="s">
         <v>164</v>
       </c>
@@ -6640,7 +6826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.5">
+    <row r="150" spans="1:11" ht="13">
       <c r="A150" s="15" t="s">
         <v>164</v>
       </c>
@@ -6672,7 +6858,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.5">
+    <row r="151" spans="1:11" ht="13">
       <c r="A151" s="15" t="s">
         <v>164</v>
       </c>
@@ -6701,7 +6887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="12.5">
+    <row r="152" spans="1:11" ht="13">
       <c r="A152" s="15" t="s">
         <v>164</v>
       </c>
@@ -6731,7 +6917,7 @@
       </c>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:11" ht="12.5">
+    <row r="153" spans="1:11" ht="13">
       <c r="A153" s="15" t="s">
         <v>164</v>
       </c>
@@ -6760,7 +6946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.5">
+    <row r="154" spans="1:11" ht="13">
       <c r="A154" s="15" t="s">
         <v>164</v>
       </c>
@@ -6789,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.5">
+    <row r="155" spans="1:11" ht="13">
       <c r="A155" s="15" t="s">
         <v>164</v>
       </c>
@@ -6815,7 +7001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.5">
+    <row r="156" spans="1:11" ht="13">
       <c r="A156" s="15" t="s">
         <v>164</v>
       </c>
@@ -6841,7 +7027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.5">
+    <row r="157" spans="1:11" ht="13">
       <c r="A157" s="15" t="s">
         <v>182</v>
       </c>
@@ -6871,7 +7057,7 @@
       </c>
       <c r="J157" s="15"/>
     </row>
-    <row r="158" spans="1:11" ht="12.5">
+    <row r="158" spans="1:11" ht="13">
       <c r="A158" s="15" t="s">
         <v>182</v>
       </c>
@@ -6903,7 +7089,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="12.5">
+    <row r="159" spans="1:11" ht="13">
       <c r="A159" s="15" t="s">
         <v>182</v>
       </c>
@@ -6935,7 +7121,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.5">
+    <row r="160" spans="1:11" ht="13">
       <c r="A160" s="15" t="s">
         <v>182</v>
       </c>
@@ -6968,7 +7154,7 @@
       </c>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:27" ht="12.5">
+    <row r="161" spans="1:27" ht="13">
       <c r="A161" s="15" t="s">
         <v>182</v>
       </c>
@@ -6992,7 +7178,7 @@
       </c>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:27" ht="12.5">
+    <row r="162" spans="1:27" ht="13">
       <c r="A162" s="17" t="s">
         <v>182</v>
       </c>
@@ -7036,7 +7222,7 @@
       <c r="Z162" s="17"/>
       <c r="AA162" s="17"/>
     </row>
-    <row r="163" spans="1:27" ht="12.5">
+    <row r="163" spans="1:27" ht="13">
       <c r="A163" s="15" t="s">
         <v>184</v>
       </c>
@@ -7059,7 +7245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="12.5">
+    <row r="164" spans="1:27" ht="13">
       <c r="A164" s="15" t="s">
         <v>184</v>
       </c>
@@ -7091,7 +7277,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="12.5">
+    <row r="165" spans="1:27" ht="13">
       <c r="A165" s="15" t="s">
         <v>184</v>
       </c>
@@ -7120,7 +7306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="12.5">
+    <row r="166" spans="1:27" ht="13">
       <c r="A166" s="15" t="s">
         <v>184</v>
       </c>
@@ -7143,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="12.5">
+    <row r="167" spans="1:27" ht="13">
       <c r="A167" s="15" t="s">
         <v>186</v>
       </c>
@@ -7172,7 +7358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="12.5">
+    <row r="168" spans="1:27" ht="13">
       <c r="A168" s="15" t="s">
         <v>186</v>
       </c>
@@ -7196,7 +7382,7 @@
       </c>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:27" ht="12.5">
+    <row r="169" spans="1:27" ht="13">
       <c r="A169" s="15" t="s">
         <v>186</v>
       </c>
@@ -7220,7 +7406,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="12.5">
+    <row r="170" spans="1:27" ht="13">
       <c r="A170" s="15" t="s">
         <v>190</v>
       </c>
@@ -7250,7 +7436,7 @@
       </c>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:27" ht="12.5">
+    <row r="171" spans="1:27" ht="13">
       <c r="A171" s="15" t="s">
         <v>190</v>
       </c>
@@ -7279,7 +7465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="12.5">
+    <row r="172" spans="1:27" ht="13">
       <c r="A172" s="15" t="s">
         <v>190</v>
       </c>
@@ -7308,7 +7494,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="12.5">
+    <row r="173" spans="1:27" ht="13">
       <c r="A173" s="15" t="s">
         <v>190</v>
       </c>
@@ -7337,7 +7523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="12.5">
+    <row r="174" spans="1:27" ht="13">
       <c r="A174" s="15" t="s">
         <v>190</v>
       </c>
@@ -7360,7 +7546,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="12.5">
+    <row r="175" spans="1:27" ht="13">
       <c r="A175" s="15" t="s">
         <v>196</v>
       </c>
@@ -7389,7 +7575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="12.5">
+    <row r="176" spans="1:27" ht="13">
       <c r="A176" s="15" t="s">
         <v>197</v>
       </c>
@@ -7418,7 +7604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="12.5">
+    <row r="177" spans="1:10" ht="13">
       <c r="A177" s="15" t="s">
         <v>197</v>
       </c>
@@ -7447,7 +7633,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="12.5">
+    <row r="178" spans="1:10" ht="13">
       <c r="A178" s="15" t="s">
         <v>196</v>
       </c>
@@ -7473,7 +7659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="12.5">
+    <row r="179" spans="1:10" ht="13">
       <c r="A179" s="15" t="s">
         <v>197</v>
       </c>
@@ -7493,7 +7679,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="12.5">
+    <row r="180" spans="1:10" ht="13">
       <c r="A180" s="15" t="s">
         <v>201</v>
       </c>
@@ -7522,7 +7708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="12.5">
+    <row r="181" spans="1:10" ht="13">
       <c r="A181" s="15" t="s">
         <v>201</v>
       </c>
@@ -7551,7 +7737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="12.5">
+    <row r="182" spans="1:10" ht="13">
       <c r="A182" s="15" t="s">
         <v>201</v>
       </c>
@@ -7580,7 +7766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="12.5">
+    <row r="183" spans="1:10" ht="13">
       <c r="A183" s="15" t="s">
         <v>204</v>
       </c>
@@ -7609,7 +7795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="12.5">
+    <row r="184" spans="1:10" ht="13">
       <c r="A184" s="15" t="s">
         <v>204</v>
       </c>
@@ -7638,7 +7824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="12.5">
+    <row r="185" spans="1:10" ht="13">
       <c r="A185" s="15" t="s">
         <v>204</v>
       </c>
@@ -7661,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="12.5">
+    <row r="186" spans="1:10" ht="13">
       <c r="A186" s="15" t="s">
         <v>204</v>
       </c>
@@ -7690,7 +7876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="12.5">
+    <row r="187" spans="1:10" ht="13">
       <c r="A187" s="15" t="s">
         <v>204</v>
       </c>
@@ -7714,7 +7900,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="12.5">
+    <row r="188" spans="1:10" ht="13">
       <c r="A188" s="15" t="s">
         <v>204</v>
       </c>
@@ -7743,7 +7929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="12.5">
+    <row r="189" spans="1:10" ht="13">
       <c r="A189" s="15" t="s">
         <v>204</v>
       </c>
@@ -7767,7 +7953,7 @@
       </c>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" ht="12.5">
+    <row r="190" spans="1:10" ht="13">
       <c r="A190" s="15" t="s">
         <v>204</v>
       </c>
@@ -7790,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="12.5">
+    <row r="191" spans="1:10" ht="13">
       <c r="A191" s="15" t="s">
         <v>209</v>
       </c>
@@ -7819,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="12.5">
+    <row r="192" spans="1:10" ht="13">
       <c r="A192" s="15" t="s">
         <v>209</v>
       </c>
@@ -7848,7 +8034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="12.5">
+    <row r="193" spans="1:10" ht="13">
       <c r="A193" s="15" t="s">
         <v>209</v>
       </c>
@@ -7880,7 +8066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="12.5">
+    <row r="194" spans="1:10" ht="13">
       <c r="A194" s="15" t="s">
         <v>210</v>
       </c>
@@ -7909,7 +8095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="12.5">
+    <row r="195" spans="1:10" ht="13">
       <c r="A195" s="15" t="s">
         <v>210</v>
       </c>
@@ -7938,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="12.5">
+    <row r="196" spans="1:10" ht="13">
       <c r="A196" s="15" t="s">
         <v>210</v>
       </c>
@@ -7965,7 +8151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="12.5">
+    <row r="197" spans="1:10" ht="13">
       <c r="A197" s="15" t="s">
         <v>210</v>
       </c>
@@ -7991,7 +8177,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="12.5">
+    <row r="198" spans="1:10" ht="13">
       <c r="A198" s="15" t="s">
         <v>210</v>
       </c>
@@ -8014,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="12.5">
+    <row r="199" spans="1:10" ht="13">
       <c r="A199" s="15" t="s">
         <v>210</v>
       </c>
@@ -8037,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="12.5">
+    <row r="200" spans="1:10" ht="13">
       <c r="A200" s="15" t="s">
         <v>210</v>
       </c>
@@ -8060,7 +8246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="12.5">
+    <row r="201" spans="1:10" ht="13">
       <c r="A201" s="15" t="s">
         <v>215</v>
       </c>
@@ -8089,7 +8275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="12.5">
+    <row r="202" spans="1:10" ht="13">
       <c r="A202" s="15" t="s">
         <v>215</v>
       </c>
@@ -8118,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="12.5">
+    <row r="203" spans="1:10" ht="13">
       <c r="A203" s="15" t="s">
         <v>215</v>
       </c>
@@ -8141,7 +8327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="12.5">
+    <row r="204" spans="1:10" ht="13">
       <c r="A204" s="15" t="s">
         <v>215</v>
       </c>
@@ -8167,7 +8353,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="12.5">
+    <row r="205" spans="1:10" ht="13">
       <c r="A205" s="15" t="s">
         <v>215</v>
       </c>
@@ -8193,7 +8379,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="12.5">
+    <row r="206" spans="1:10" ht="13">
       <c r="A206" s="15" t="s">
         <v>215</v>
       </c>
@@ -8222,7 +8408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="12.5">
+    <row r="207" spans="1:10" ht="13">
       <c r="A207" s="15" t="s">
         <v>221</v>
       </c>
@@ -8254,7 +8440,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="12.5">
+    <row r="208" spans="1:10" ht="13">
       <c r="A208" s="15" t="s">
         <v>221</v>
       </c>
@@ -8277,7 +8463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="12.5">
+    <row r="209" spans="1:10" ht="13">
       <c r="A209" s="15" t="s">
         <v>221</v>
       </c>
@@ -8306,7 +8492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="12.5">
+    <row r="210" spans="1:10" ht="13">
       <c r="A210" s="15" t="s">
         <v>221</v>
       </c>
@@ -8335,7 +8521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="12.5">
+    <row r="211" spans="1:10" ht="13">
       <c r="A211" s="15" t="s">
         <v>221</v>
       </c>
@@ -8365,7 +8551,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="12.5">
+    <row r="212" spans="1:10" ht="13">
       <c r="A212" s="15" t="s">
         <v>221</v>
       </c>
@@ -8389,7 +8575,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="12.5">
+    <row r="213" spans="1:10" ht="13">
       <c r="A213" s="15" t="s">
         <v>221</v>
       </c>
@@ -8421,7 +8607,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="12.5">
+    <row r="214" spans="1:10" ht="13">
       <c r="A214" s="15" t="s">
         <v>221</v>
       </c>
@@ -8447,7 +8633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="12.5">
+    <row r="215" spans="1:10" ht="13">
       <c r="A215" s="15" t="s">
         <v>221</v>
       </c>
@@ -8473,7 +8659,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="12.5">
+    <row r="216" spans="1:10" ht="13">
       <c r="A216" s="15" t="s">
         <v>221</v>
       </c>
@@ -8497,7 +8683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="12.5">
+    <row r="217" spans="1:10" ht="13">
       <c r="A217" s="15" t="s">
         <v>221</v>
       </c>
@@ -8523,7 +8709,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="12.5">
+    <row r="218" spans="1:10" ht="13">
       <c r="A218" s="15" t="s">
         <v>236</v>
       </c>
@@ -8546,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="12.5">
+    <row r="219" spans="1:10" ht="13">
       <c r="A219" s="15" t="s">
         <v>236</v>
       </c>
@@ -8575,7 +8761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="12.5">
+    <row r="220" spans="1:10" ht="13">
       <c r="A220" s="15" t="s">
         <v>236</v>
       </c>
@@ -8604,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="12.5">
+    <row r="221" spans="1:10" ht="13">
       <c r="A221" s="15" t="s">
         <v>236</v>
       </c>
@@ -8633,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="12.5">
+    <row r="222" spans="1:10" ht="13">
       <c r="A222" s="15" t="s">
         <v>236</v>
       </c>
@@ -8657,7 +8843,7 @@
       </c>
       <c r="J222" s="15"/>
     </row>
-    <row r="223" spans="1:10" ht="12.5">
+    <row r="223" spans="1:10" ht="13">
       <c r="A223" s="15" t="s">
         <v>236</v>
       </c>
@@ -8680,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="12.5">
+    <row r="224" spans="1:10" ht="13">
       <c r="A224" s="15" t="s">
         <v>236</v>
       </c>
@@ -8701,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="12.5">
+    <row r="225" spans="1:10" ht="13">
       <c r="A225" s="15" t="s">
         <v>237</v>
       </c>
@@ -8730,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="12.5">
+    <row r="226" spans="1:10" ht="13">
       <c r="A226" s="15" t="s">
         <v>237</v>
       </c>
@@ -8759,7 +8945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="12.5">
+    <row r="227" spans="1:10" ht="13">
       <c r="A227" s="15" t="s">
         <v>237</v>
       </c>
@@ -8788,7 +8974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="12.5">
+    <row r="228" spans="1:10" ht="13">
       <c r="A228" s="15" t="s">
         <v>237</v>
       </c>
@@ -8817,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="12.5">
+    <row r="229" spans="1:10" ht="13">
       <c r="A229" s="15" t="s">
         <v>237</v>
       </c>
@@ -8845,7 +9031,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="12.5">
+    <row r="230" spans="1:10" ht="13">
       <c r="A230" s="15" t="s">
         <v>237</v>
       </c>
@@ -8869,7 +9055,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="12.5">
+    <row r="231" spans="1:10" ht="13">
       <c r="A231" s="15" t="s">
         <v>237</v>
       </c>
@@ -8892,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="12.5">
+    <row r="232" spans="1:10" ht="13">
       <c r="A232" s="15" t="s">
         <v>242</v>
       </c>
@@ -8921,7 +9107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="12.5">
+    <row r="233" spans="1:10" ht="13">
       <c r="A233" s="15" t="s">
         <v>242</v>
       </c>
@@ -8950,7 +9136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="12.5">
+    <row r="234" spans="1:10" ht="13">
       <c r="A234" s="15" t="s">
         <v>242</v>
       </c>
@@ -8977,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="12.5">
+    <row r="235" spans="1:10" ht="13">
       <c r="A235" s="15" t="s">
         <v>242</v>
       </c>
@@ -9006,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="12.5">
+    <row r="236" spans="1:10" ht="13">
       <c r="A236" s="15" t="s">
         <v>242</v>
       </c>
@@ -9029,7 +9215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="12.5">
+    <row r="237" spans="1:10" ht="13">
       <c r="A237" s="15" t="s">
         <v>242</v>
       </c>
@@ -9052,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="12.5">
+    <row r="238" spans="1:10" ht="13">
       <c r="A238" s="15" t="s">
         <v>242</v>
       </c>
@@ -9075,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="12.5">
+    <row r="239" spans="1:10" ht="13">
       <c r="A239" s="15" t="s">
         <v>243</v>
       </c>
@@ -9104,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="12.5">
+    <row r="240" spans="1:10" ht="13">
       <c r="A240" s="15" t="s">
         <v>243</v>
       </c>
@@ -9133,7 +9319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="12.5">
+    <row r="241" spans="1:10" ht="13">
       <c r="A241" s="15" t="s">
         <v>244</v>
       </c>
@@ -9162,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="12.5">
+    <row r="242" spans="1:10" ht="13">
       <c r="A242" s="15" t="s">
         <v>244</v>
       </c>
@@ -9191,7 +9377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="12.5">
+    <row r="243" spans="1:10" ht="13">
       <c r="A243" s="15" t="s">
         <v>244</v>
       </c>
@@ -9220,7 +9406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="12.5">
+    <row r="244" spans="1:10" ht="13">
       <c r="A244" s="15" t="s">
         <v>244</v>
       </c>
@@ -9243,7 +9429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="12.5">
+    <row r="245" spans="1:10" ht="13">
       <c r="A245" s="15" t="s">
         <v>244</v>
       </c>
@@ -9263,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="12.5">
+    <row r="246" spans="1:10" ht="13">
       <c r="A246" s="15" t="s">
         <v>244</v>
       </c>
@@ -9286,7 +9472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="12.5">
+    <row r="247" spans="1:10" ht="13">
       <c r="A247" s="15" t="s">
         <v>244</v>
       </c>
@@ -9316,7 +9502,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="12.5">
+    <row r="248" spans="1:10" ht="13">
       <c r="A248" s="15" t="s">
         <v>244</v>
       </c>
@@ -9345,7 +9531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="12.5">
+    <row r="249" spans="1:10" ht="13">
       <c r="A249" s="15" t="s">
         <v>244</v>
       </c>
@@ -9368,7 +9554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="12.5">
+    <row r="250" spans="1:10" ht="13">
       <c r="A250" s="15" t="s">
         <v>249</v>
       </c>
@@ -9397,7 +9583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="12.5">
+    <row r="251" spans="1:10" ht="13">
       <c r="A251" s="15" t="s">
         <v>249</v>
       </c>
@@ -9426,7 +9612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="12.5">
+    <row r="252" spans="1:10" ht="13">
       <c r="A252" s="15" t="s">
         <v>249</v>
       </c>
@@ -9455,7 +9641,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="12.5">
+    <row r="253" spans="1:10" ht="13">
       <c r="A253" s="15" t="s">
         <v>249</v>
       </c>
@@ -9478,7 +9664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="12.5">
+    <row r="254" spans="1:10" ht="13">
       <c r="A254" s="15" t="s">
         <v>249</v>
       </c>
@@ -9498,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="12.5">
+    <row r="255" spans="1:10" ht="13">
       <c r="A255" s="15" t="s">
         <v>249</v>
       </c>
@@ -9521,7 +9707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="12.5">
+    <row r="256" spans="1:10" ht="13">
       <c r="A256" s="15" t="s">
         <v>249</v>
       </c>
@@ -9544,7 +9730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="12.5">
+    <row r="257" spans="1:10" ht="13">
       <c r="A257" s="15" t="s">
         <v>251</v>
       </c>
@@ -9573,7 +9759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="12.5">
+    <row r="258" spans="1:10" ht="13">
       <c r="A258" s="15" t="s">
         <v>251</v>
       </c>
@@ -9600,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="12.5">
+    <row r="259" spans="1:10" ht="13">
       <c r="A259" s="15" t="s">
         <v>251</v>
       </c>
@@ -9623,7 +9809,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="12.5">
+    <row r="260" spans="1:10" ht="13">
       <c r="A260" s="15" t="s">
         <v>251</v>
       </c>
@@ -9650,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="12.5">
+    <row r="261" spans="1:10" ht="13">
       <c r="A261" s="15" t="s">
         <v>253</v>
       </c>
@@ -9673,7 +9859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="12.5">
+    <row r="262" spans="1:10" ht="13">
       <c r="A262" s="15" t="s">
         <v>253</v>
       </c>
@@ -9702,7 +9888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="12.5">
+    <row r="263" spans="1:10" ht="13">
       <c r="A263" s="15" t="s">
         <v>253</v>
       </c>
@@ -9731,7 +9917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="12.5">
+    <row r="264" spans="1:10" ht="13">
       <c r="A264" s="15" t="s">
         <v>253</v>
       </c>
@@ -9754,7 +9940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="12.5">
+    <row r="265" spans="1:10" ht="13">
       <c r="A265" s="15" t="s">
         <v>253</v>
       </c>
@@ -9782,7 +9968,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="12.5">
+    <row r="266" spans="1:10" ht="13">
       <c r="A266" s="15" t="s">
         <v>255</v>
       </c>
@@ -9811,7 +9997,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="12.5">
+    <row r="267" spans="1:10" ht="13">
       <c r="A267" s="15" t="s">
         <v>255</v>
       </c>
@@ -9840,7 +10026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="12.5">
+    <row r="268" spans="1:10" ht="13">
       <c r="A268" s="15" t="s">
         <v>255</v>
       </c>
@@ -9869,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="12.5">
+    <row r="269" spans="1:10" ht="13">
       <c r="A269" s="15" t="s">
         <v>255</v>
       </c>
@@ -9898,7 +10084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="12.5">
+    <row r="270" spans="1:10" ht="13">
       <c r="A270" s="15" t="s">
         <v>255</v>
       </c>
@@ -9918,7 +10104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="12.5">
+    <row r="271" spans="1:10" ht="13">
       <c r="A271" s="15" t="s">
         <v>257</v>
       </c>
@@ -9947,7 +10133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="12.5">
+    <row r="272" spans="1:10" ht="13">
       <c r="A272" s="15" t="s">
         <v>257</v>
       </c>
@@ -9970,7 +10156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="12.5">
+    <row r="273" spans="1:10" ht="13">
       <c r="A273" s="15" t="s">
         <v>257</v>
       </c>
@@ -9998,7 +10184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="12.5">
+    <row r="274" spans="1:10" ht="13">
       <c r="A274" s="15" t="s">
         <v>258</v>
       </c>
@@ -10027,7 +10213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="12.5">
+    <row r="275" spans="1:10" ht="13">
       <c r="A275" s="15" t="s">
         <v>258</v>
       </c>
@@ -10056,7 +10242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="12.5">
+    <row r="276" spans="1:10" ht="13">
       <c r="A276" s="15" t="s">
         <v>258</v>
       </c>
@@ -10085,7 +10271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="12.5">
+    <row r="277" spans="1:10" ht="13">
       <c r="A277" s="15" t="s">
         <v>258</v>
       </c>
@@ -10108,7 +10294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="12.5">
+    <row r="278" spans="1:10" ht="13">
       <c r="A278" s="15" t="s">
         <v>258</v>
       </c>
@@ -10131,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="12.5">
+    <row r="279" spans="1:10" ht="13">
       <c r="A279" s="15" t="s">
         <v>259</v>
       </c>
@@ -10160,7 +10346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="12.5">
+    <row r="280" spans="1:10" ht="13">
       <c r="A280" s="15" t="s">
         <v>259</v>
       </c>
@@ -10189,7 +10375,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="12.5">
+    <row r="281" spans="1:10" ht="13">
       <c r="A281" s="15" t="s">
         <v>259</v>
       </c>
@@ -10218,7 +10404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="12.5">
+    <row r="282" spans="1:10" ht="13">
       <c r="A282" s="15" t="s">
         <v>259</v>
       </c>
@@ -10241,7 +10427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="12.5">
+    <row r="283" spans="1:10" ht="13">
       <c r="A283" s="15" t="s">
         <v>259</v>
       </c>
@@ -10264,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="12.5">
+    <row r="284" spans="1:10" ht="13">
       <c r="A284" s="15" t="s">
         <v>260</v>
       </c>
@@ -10293,7 +10479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="12.5">
+    <row r="285" spans="1:10" ht="13">
       <c r="A285" s="15" t="s">
         <v>260</v>
       </c>
@@ -10322,7 +10508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="12.5">
+    <row r="286" spans="1:10" ht="13">
       <c r="A286" s="15" t="s">
         <v>260</v>
       </c>
@@ -10351,7 +10537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="12.5">
+    <row r="287" spans="1:10" ht="13">
       <c r="A287" s="15" t="s">
         <v>260</v>
       </c>
@@ -10374,7 +10560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="12.5">
+    <row r="288" spans="1:10" ht="13">
       <c r="A288" s="15" t="s">
         <v>260</v>
       </c>
@@ -10401,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="12.5">
+    <row r="289" spans="1:10" ht="13">
       <c r="A289" s="15" t="s">
         <v>260</v>
       </c>
@@ -10429,7 +10615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="12.5">
+    <row r="290" spans="1:10" ht="13">
       <c r="A290" s="15" t="s">
         <v>260</v>
       </c>
@@ -10452,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="12.5">
+    <row r="291" spans="1:10" ht="13">
       <c r="A291" s="15" t="s">
         <v>260</v>
       </c>
@@ -10475,7 +10661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="12.5">
+    <row r="292" spans="1:10" ht="13">
       <c r="A292" s="15" t="s">
         <v>260</v>
       </c>
@@ -10514,17 +10700,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>711</v>
+        <v>764</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>266</v>
@@ -10638,6 +10824,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C04668-6624-984D-B592-8918F2722E8E}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2">
+        <v>5674395</v>
+      </c>
+      <c r="E2" s="10">
+        <v>603187</v>
+      </c>
+      <c r="F2" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D3">
+        <v>5674113</v>
+      </c>
+      <c r="E3" s="10">
+        <v>603960</v>
+      </c>
+      <c r="F3" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4">
+        <v>5674404</v>
+      </c>
+      <c r="E4" s="10">
+        <v>604282</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D5">
+        <v>5673748</v>
+      </c>
+      <c r="E5" s="10">
+        <v>604256</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D6">
+        <v>5673644</v>
+      </c>
+      <c r="E6" s="10">
+        <v>603748</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D7">
+        <v>5674470</v>
+      </c>
+      <c r="E7" s="10">
+        <v>602992</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="D8">
+        <v>5674533</v>
+      </c>
+      <c r="E8" s="10">
+        <v>603002</v>
+      </c>
+      <c r="F8" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D9">
+        <v>5672000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>609996</v>
+      </c>
+      <c r="F9" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10">
+        <v>5672116</v>
+      </c>
+      <c r="E10" s="10">
+        <v>609836</v>
+      </c>
+      <c r="F10" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D11">
+        <v>5672220</v>
+      </c>
+      <c r="E11" s="10">
+        <v>609633</v>
+      </c>
+      <c r="F11" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D12">
+        <v>5672230</v>
+      </c>
+      <c r="E12" s="10">
+        <v>609631</v>
+      </c>
+      <c r="F12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D13">
+        <v>5672281</v>
+      </c>
+      <c r="E13" s="10">
+        <v>609358</v>
+      </c>
+      <c r="F13" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D14">
+        <v>5671819</v>
+      </c>
+      <c r="E14" s="10">
+        <v>609871</v>
+      </c>
+      <c r="F14" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16">
+      <c r="A15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D15">
+        <v>5671925</v>
+      </c>
+      <c r="E15" s="10">
+        <v>609559</v>
+      </c>
+      <c r="F15" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D16">
+        <v>5671983</v>
+      </c>
+      <c r="E16" s="10">
+        <v>609467</v>
+      </c>
+      <c r="F16" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D17">
+        <v>5672154</v>
+      </c>
+      <c r="E17" s="10">
+        <v>609300</v>
+      </c>
+      <c r="F17" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16">
+      <c r="A18" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D18">
+        <v>5672213</v>
+      </c>
+      <c r="E18" s="10">
+        <v>609269</v>
+      </c>
+      <c r="F18" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D19">
+        <v>5672303</v>
+      </c>
+      <c r="E19" s="10">
+        <v>609541</v>
+      </c>
+      <c r="F19" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16">
+      <c r="A20" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D20">
+        <v>5672240</v>
+      </c>
+      <c r="E20" s="10">
+        <v>609615</v>
+      </c>
+      <c r="F20" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16">
+      <c r="A21" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D21">
+        <v>5664384</v>
+      </c>
+      <c r="E21" s="10">
+        <v>588252</v>
+      </c>
+      <c r="F21" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16">
+      <c r="A22" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D22">
+        <v>5664393</v>
+      </c>
+      <c r="E22" s="10">
+        <v>588231</v>
+      </c>
+      <c r="F22" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D23">
+        <v>5664379</v>
+      </c>
+      <c r="E23" s="10">
+        <v>588217</v>
+      </c>
+      <c r="F23" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D24">
+        <v>5664425</v>
+      </c>
+      <c r="E24" s="10">
+        <v>588227</v>
+      </c>
+      <c r="F24" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D25">
+        <v>5664442</v>
+      </c>
+      <c r="E25" s="10">
+        <v>588257</v>
+      </c>
+      <c r="F25" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16">
+      <c r="A26" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D26">
+        <v>5664469</v>
+      </c>
+      <c r="E26" s="10">
+        <v>588286</v>
+      </c>
+      <c r="F26" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16">
+      <c r="A27" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D27">
+        <v>5664452</v>
+      </c>
+      <c r="E27" s="10">
+        <v>588321</v>
+      </c>
+      <c r="F27" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16">
+      <c r="A28" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D28">
+        <v>5664447</v>
+      </c>
+      <c r="E28" s="10">
+        <v>588333</v>
+      </c>
+      <c r="F28" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16">
+      <c r="A29" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D29">
+        <v>5664432</v>
+      </c>
+      <c r="E29" s="10">
+        <v>588364</v>
+      </c>
+      <c r="F29" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16">
+      <c r="A30" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D30">
+        <v>5665419</v>
+      </c>
+      <c r="E30" s="10">
+        <v>590593</v>
+      </c>
+      <c r="F30" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16">
+      <c r="A31" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D31">
+        <v>5680194</v>
+      </c>
+      <c r="E31" s="10">
+        <v>579412</v>
+      </c>
+      <c r="F31" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16">
+      <c r="A32" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D32" s="25">
+        <v>5680205</v>
+      </c>
+      <c r="E32" s="10">
+        <v>579412</v>
+      </c>
+      <c r="F32" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D33">
+        <v>5680130</v>
+      </c>
+      <c r="E33" s="10">
+        <v>579395</v>
+      </c>
+      <c r="F33" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D34">
+        <v>5680247</v>
+      </c>
+      <c r="E34" s="10">
+        <v>579386</v>
+      </c>
+      <c r="F34" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16">
+      <c r="A35" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D35">
+        <v>5680245</v>
+      </c>
+      <c r="E35" s="10">
+        <v>579384</v>
+      </c>
+      <c r="F35" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16">
+      <c r="A36" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D36">
+        <v>5680243</v>
+      </c>
+      <c r="E36" s="10">
+        <v>579393</v>
+      </c>
+      <c r="F36" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16">
+      <c r="A37" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D37">
+        <v>5680218</v>
+      </c>
+      <c r="E37" s="10">
+        <v>579403</v>
+      </c>
+      <c r="F37" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16">
+      <c r="A38" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D38">
+        <v>5680215</v>
+      </c>
+      <c r="E38" s="10">
+        <v>579404</v>
+      </c>
+      <c r="F38" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16">
+      <c r="A39" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D39">
+        <v>5680208</v>
+      </c>
+      <c r="E39" s="10">
+        <v>579409</v>
+      </c>
+      <c r="F39" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16">
+      <c r="A40" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D40">
+        <v>5680213</v>
+      </c>
+      <c r="E40" s="10">
+        <v>579412</v>
+      </c>
+      <c r="F40" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16">
+      <c r="A41" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D41">
+        <v>5680181</v>
+      </c>
+      <c r="E41" s="10">
+        <v>579424</v>
+      </c>
+      <c r="F41" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16">
+      <c r="A42" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D42">
+        <v>5680193</v>
+      </c>
+      <c r="E42" s="10">
+        <v>579429</v>
+      </c>
+      <c r="F42" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16">
+      <c r="A43" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D43">
+        <v>5680181</v>
+      </c>
+      <c r="E43" s="10">
+        <v>579425</v>
+      </c>
+      <c r="F43" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16">
+      <c r="A44" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D44">
+        <v>5680180</v>
+      </c>
+      <c r="E44" s="10">
+        <v>579428</v>
+      </c>
+      <c r="F44" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16">
+      <c r="A45" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D45">
+        <v>5680177</v>
+      </c>
+      <c r="E45" s="10">
+        <v>579437</v>
+      </c>
+      <c r="F45" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16">
+      <c r="A46" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D46">
+        <v>5680186</v>
+      </c>
+      <c r="E46" s="10">
+        <v>579446</v>
+      </c>
+      <c r="F46" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16">
+      <c r="A47" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D47">
+        <v>5680163</v>
+      </c>
+      <c r="E47" s="10">
+        <v>579423</v>
+      </c>
+      <c r="F47" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16">
+      <c r="A48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D48">
+        <v>5670981</v>
+      </c>
+      <c r="E48" s="10">
+        <v>608816</v>
+      </c>
+      <c r="F48" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16">
+      <c r="A49" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D49">
+        <v>5671031</v>
+      </c>
+      <c r="E49" s="10">
+        <v>608767</v>
+      </c>
+      <c r="F49" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16">
+      <c r="A50" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D50">
+        <v>5671051</v>
+      </c>
+      <c r="E50" s="10">
+        <v>608744</v>
+      </c>
+      <c r="F50" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16">
+      <c r="A51" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D51">
+        <v>5671051</v>
+      </c>
+      <c r="E51" s="10">
+        <v>608744</v>
+      </c>
+      <c r="F51" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16">
+      <c r="A52" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D52">
+        <v>5670771</v>
+      </c>
+      <c r="E52" s="10">
+        <v>608724</v>
+      </c>
+      <c r="F52" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16">
+      <c r="A53" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D53">
+        <v>5670771</v>
+      </c>
+      <c r="E53" s="10">
+        <v>608724</v>
+      </c>
+      <c r="F53" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16">
+      <c r="A54" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D54">
+        <v>5670771</v>
+      </c>
+      <c r="E54" s="10">
+        <v>608724</v>
+      </c>
+      <c r="F54" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16">
+      <c r="A55" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D55">
+        <v>5670771</v>
+      </c>
+      <c r="E55" s="10">
+        <v>608724</v>
+      </c>
+      <c r="F55" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16">
+      <c r="A56" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="D56">
+        <v>5670710</v>
+      </c>
+      <c r="E56" s="10">
+        <v>608802</v>
+      </c>
+      <c r="F56" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16">
+      <c r="A57" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D57">
+        <v>5671908</v>
+      </c>
+      <c r="E57" s="10">
+        <v>598275</v>
+      </c>
+      <c r="F57" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16">
+      <c r="A58" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D58">
+        <v>5671896</v>
+      </c>
+      <c r="E58" s="10">
+        <v>598263</v>
+      </c>
+      <c r="F58" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16">
+      <c r="A59" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D59">
+        <v>5671902</v>
+      </c>
+      <c r="E59" s="10">
+        <v>598260</v>
+      </c>
+      <c r="F59" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16">
+      <c r="A60" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D60">
+        <v>5671826</v>
+      </c>
+      <c r="E60" s="10">
+        <v>598182</v>
+      </c>
+      <c r="F60" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16">
+      <c r="A61" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D61">
+        <v>5671823</v>
+      </c>
+      <c r="E61" s="10">
+        <v>598211</v>
+      </c>
+      <c r="F61" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16">
+      <c r="A62" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D62">
+        <v>5671773</v>
+      </c>
+      <c r="E62" s="10">
+        <v>598262</v>
+      </c>
+      <c r="F62" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16">
+      <c r="A63" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D63">
+        <v>5671780</v>
+      </c>
+      <c r="E63" s="10">
+        <v>598299</v>
+      </c>
+      <c r="F63" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16">
+      <c r="A64" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D64">
+        <v>5671773</v>
+      </c>
+      <c r="E64" s="10">
+        <v>598310</v>
+      </c>
+      <c r="F64" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16">
+      <c r="A65" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D65">
+        <v>5671771</v>
+      </c>
+      <c r="E65" s="10">
+        <v>598451</v>
+      </c>
+      <c r="F65" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16">
+      <c r="A66" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="D66">
+        <v>5671875</v>
+      </c>
+      <c r="E66" s="10">
+        <v>598467</v>
+      </c>
+      <c r="F66" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16">
+      <c r="A67" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D67">
+        <v>5672133</v>
+      </c>
+      <c r="E67" s="10">
+        <v>604081</v>
+      </c>
+      <c r="F67" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16">
+      <c r="A68" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D68">
+        <v>5672215</v>
+      </c>
+      <c r="E68" s="10">
+        <v>604448</v>
+      </c>
+      <c r="F68" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16">
+      <c r="A69" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D69">
+        <v>5672259</v>
+      </c>
+      <c r="E69" s="10">
+        <v>604328</v>
+      </c>
+      <c r="F69" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16">
+      <c r="A70" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D70">
+        <v>5671724</v>
+      </c>
+      <c r="E70" s="10">
+        <v>604086</v>
+      </c>
+      <c r="F70" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16">
+      <c r="A71" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D71">
+        <v>5671726</v>
+      </c>
+      <c r="E71" s="10">
+        <v>604515</v>
+      </c>
+      <c r="F71" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16">
+      <c r="A72" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D72">
+        <v>5671812</v>
+      </c>
+      <c r="E72" s="10">
+        <v>604652</v>
+      </c>
+      <c r="F72" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16">
+      <c r="A73" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D73">
+        <v>5672281</v>
+      </c>
+      <c r="E73" s="10">
+        <v>603470</v>
+      </c>
+      <c r="F73" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16">
+      <c r="A74" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D74">
+        <v>5672402</v>
+      </c>
+      <c r="E74" s="10">
+        <v>603211</v>
+      </c>
+      <c r="F74" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16">
+      <c r="A75" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D75">
+        <v>5672050</v>
+      </c>
+      <c r="E75" s="10">
+        <v>601974</v>
+      </c>
+      <c r="F75" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16">
+      <c r="A76" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D76">
+        <v>5672048</v>
+      </c>
+      <c r="E76" s="10">
+        <v>602070</v>
+      </c>
+      <c r="F76" s="10">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10645,11 +12366,11 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -11939,7 +13660,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.5">
+    <row r="23" spans="1:23" ht="16">
       <c r="A23" s="3" t="s">
         <v>182</v>
       </c>
@@ -11998,7 +13719,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.5">
+    <row r="24" spans="1:23" ht="16">
       <c r="A24" s="3" t="s">
         <v>184</v>
       </c>
@@ -12069,7 +13790,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.5">
+    <row r="25" spans="1:23" ht="16">
       <c r="A25" s="3" t="s">
         <v>186</v>
       </c>
@@ -12140,7 +13861,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.5">
+    <row r="26" spans="1:23" ht="16">
       <c r="A26" s="3" t="s">
         <v>190</v>
       </c>
@@ -12211,7 +13932,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.5">
+    <row r="27" spans="1:23" ht="16">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -12282,7 +14003,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.5">
+    <row r="28" spans="1:23" ht="16">
       <c r="A28" s="3" t="s">
         <v>201</v>
       </c>
@@ -12353,7 +14074,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.5">
+    <row r="29" spans="1:23" ht="16">
       <c r="A29" s="3" t="s">
         <v>204</v>
       </c>
@@ -12424,7 +14145,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.5">
+    <row r="30" spans="1:23" ht="16">
       <c r="A30" s="3" t="s">
         <v>209</v>
       </c>
@@ -12495,7 +14216,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.5">
+    <row r="31" spans="1:23" ht="16">
       <c r="A31" s="3" t="s">
         <v>437</v>
       </c>
@@ -12566,7 +14287,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.5">
+    <row r="32" spans="1:23" ht="16">
       <c r="A32" s="3" t="s">
         <v>443</v>
       </c>
@@ -12637,7 +14358,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.5">
+    <row r="33" spans="1:23" ht="16">
       <c r="A33" s="3" t="s">
         <v>448</v>
       </c>
@@ -12690,7 +14411,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:23" ht="15.5">
+    <row r="34" spans="1:23" ht="16">
       <c r="A34" s="3" t="s">
         <v>454</v>
       </c>
@@ -12743,7 +14464,7 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:23" ht="15.5">
+    <row r="35" spans="1:23" ht="16">
       <c r="A35" s="3" t="s">
         <v>460</v>
       </c>
@@ -12796,7 +14517,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="1:23" ht="15.5">
+    <row r="36" spans="1:23" ht="16">
       <c r="A36" s="3" t="s">
         <v>465</v>
       </c>
@@ -12837,7 +14558,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="1:23" ht="15.5">
+    <row r="37" spans="1:23" ht="16">
       <c r="A37" s="3" t="s">
         <v>466</v>
       </c>
@@ -12890,7 +14611,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="1:23" ht="15.5">
+    <row r="38" spans="1:23" ht="16">
       <c r="A38" s="3" t="s">
         <v>470</v>
       </c>
@@ -12943,7 +14664,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="1:23" ht="15.5">
+    <row r="39" spans="1:23" ht="16">
       <c r="A39" s="3" t="s">
         <v>475</v>
       </c>
@@ -13014,7 +14735,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.5">
+    <row r="40" spans="1:23" ht="16">
       <c r="A40" s="3" t="s">
         <v>481</v>
       </c>
@@ -13085,7 +14806,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.5">
+    <row r="41" spans="1:23" ht="16">
       <c r="A41" s="3" t="s">
         <v>237</v>
       </c>
@@ -13156,7 +14877,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.5">
+    <row r="42" spans="1:23" ht="16">
       <c r="A42" s="3" t="s">
         <v>242</v>
       </c>
@@ -13227,7 +14948,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.5">
+    <row r="43" spans="1:23" ht="16">
       <c r="A43" s="3" t="s">
         <v>497</v>
       </c>
@@ -13298,7 +15019,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.5">
+    <row r="44" spans="1:23" ht="16">
       <c r="A44" s="3" t="s">
         <v>504</v>
       </c>
@@ -13369,7 +15090,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.5">
+    <row r="45" spans="1:23" ht="16">
       <c r="A45" s="3" t="s">
         <v>509</v>
       </c>
@@ -13440,7 +15161,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.5">
+    <row r="46" spans="1:23" ht="16">
       <c r="A46" s="3" t="s">
         <v>515</v>
       </c>
@@ -13493,7 +15214,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" ht="15.5">
+    <row r="47" spans="1:23" ht="16">
       <c r="A47" s="3" t="s">
         <v>519</v>
       </c>
@@ -13564,7 +15285,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.5">
+    <row r="48" spans="1:23" ht="16">
       <c r="A48" s="3" t="s">
         <v>118</v>
       </c>
@@ -13635,7 +15356,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.5">
+    <row r="49" spans="1:23" ht="16">
       <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
@@ -13706,7 +15427,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.5">
+    <row r="50" spans="1:23" ht="16">
       <c r="A50" s="3" t="s">
         <v>135</v>
       </c>
@@ -13777,7 +15498,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.5">
+    <row r="51" spans="1:23" ht="16">
       <c r="A51" s="3" t="s">
         <v>140</v>
       </c>
@@ -13848,7 +15569,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.5">
+    <row r="52" spans="1:23" ht="16">
       <c r="A52" s="3" t="s">
         <v>141</v>
       </c>
@@ -13919,7 +15640,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.5">
+    <row r="53" spans="1:23" ht="16">
       <c r="A53" s="3" t="s">
         <v>546</v>
       </c>
@@ -13972,7 +15693,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" ht="15.5">
+    <row r="54" spans="1:23" ht="16">
       <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
@@ -14043,7 +15764,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.5">
+    <row r="55" spans="1:23" ht="16">
       <c r="A55" s="3" t="s">
         <v>150</v>
       </c>
@@ -14114,7 +15835,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.5">
+    <row r="56" spans="1:23" ht="16">
       <c r="A56" s="3" t="s">
         <v>153</v>
       </c>
@@ -14185,7 +15906,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.5">
+    <row r="57" spans="1:23" ht="16">
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
@@ -14256,7 +15977,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.5">
+    <row r="58" spans="1:23" ht="16">
       <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
@@ -14327,7 +16048,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.5">
+    <row r="59" spans="1:23" ht="16">
       <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
@@ -14398,7 +16119,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.5">
+    <row r="60" spans="1:23" ht="16">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -14469,7 +16190,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.5">
+    <row r="61" spans="1:23" ht="16">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -14540,7 +16261,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.5">
+    <row r="62" spans="1:23" ht="16">
       <c r="A62" s="3" t="s">
         <v>584</v>
       </c>
@@ -14605,7 +16326,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
     </row>
-    <row r="63" spans="1:23" ht="15.5">
+    <row r="63" spans="1:23" ht="16">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -14676,7 +16397,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.5">
+    <row r="64" spans="1:23" ht="16">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -14747,7 +16468,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15.5">
+    <row r="65" spans="1:23" ht="16">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -14818,7 +16539,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15.5">
+    <row r="66" spans="1:23" ht="16">
       <c r="A66" s="3" t="s">
         <v>78</v>
       </c>
@@ -14889,7 +16610,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15.5">
+    <row r="67" spans="1:23" ht="16">
       <c r="A67" s="3" t="s">
         <v>601</v>
       </c>
@@ -14960,7 +16681,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15.5">
+    <row r="68" spans="1:23" ht="16">
       <c r="A68" s="3" t="s">
         <v>605</v>
       </c>
@@ -15031,7 +16752,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.5">
+    <row r="69" spans="1:23" ht="16">
       <c r="A69" s="3" t="s">
         <v>608</v>
       </c>
@@ -15102,7 +16823,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15.5">
+    <row r="70" spans="1:23" ht="16">
       <c r="A70" s="3" t="s">
         <v>613</v>
       </c>
@@ -15173,7 +16894,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15.5">
+    <row r="71" spans="1:23" ht="16">
       <c r="A71" s="3" t="s">
         <v>617</v>
       </c>
@@ -15244,7 +16965,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15.5">
+    <row r="72" spans="1:23" ht="16">
       <c r="A72" s="3" t="s">
         <v>621</v>
       </c>
@@ -15315,7 +17036,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15.5">
+    <row r="73" spans="1:23" ht="16">
       <c r="A73" s="3" t="s">
         <v>626</v>
       </c>
@@ -15378,7 +17099,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15.5">
+    <row r="74" spans="1:23" ht="16">
       <c r="A74" s="3" t="s">
         <v>631</v>
       </c>
@@ -15441,7 +17162,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15.5">
+    <row r="75" spans="1:23" ht="16">
       <c r="A75" s="3" t="s">
         <v>635</v>
       </c>
@@ -15504,7 +17225,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15.5">
+    <row r="76" spans="1:23" ht="16">
       <c r="A76" s="3" t="s">
         <v>638</v>
       </c>
@@ -15568,7 +17289,238 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A181FE-AA31-A241-B19C-98688EC8EBF3}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -15580,7 +17532,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -15887,7 +17839,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.5">
+    <row r="23" spans="1:4" ht="13">
       <c r="A23" s="2" t="s">
         <v>601</v>
       </c>
@@ -15901,7 +17853,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.5">
+    <row r="24" spans="1:4" ht="13">
       <c r="A24" s="2" t="s">
         <v>608</v>
       </c>
@@ -15915,7 +17867,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.5">
+    <row r="25" spans="1:4" ht="13">
       <c r="A25" s="2" t="s">
         <v>671</v>
       </c>
@@ -15934,7 +17886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -15946,7 +17898,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -16368,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="3" t="s">
         <v>182</v>
       </c>
@@ -16393,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5">
+    <row r="24" spans="1:9" ht="16">
       <c r="A24" s="3" t="s">
         <v>184</v>
       </c>
@@ -16418,7 +18370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="3" t="s">
         <v>186</v>
       </c>
@@ -16443,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5">
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="3" t="s">
         <v>190</v>
       </c>
@@ -16468,7 +18420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5">
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -16493,7 +18445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5">
+    <row r="28" spans="1:9" ht="16">
       <c r="A28" s="3" t="s">
         <v>201</v>
       </c>
@@ -16518,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5">
+    <row r="29" spans="1:9" ht="16">
       <c r="A29" s="3" t="s">
         <v>204</v>
       </c>
@@ -16543,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5">
+    <row r="30" spans="1:9" ht="16">
       <c r="A30" s="3" t="s">
         <v>209</v>
       </c>
@@ -16568,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5">
+    <row r="31" spans="1:9" ht="16">
       <c r="A31" s="3" t="s">
         <v>437</v>
       </c>
@@ -16593,7 +18545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="3" t="s">
         <v>443</v>
       </c>
@@ -16618,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.5">
+    <row r="33" spans="1:9" ht="16">
       <c r="A33" s="3" t="s">
         <v>448</v>
       </c>
@@ -16631,7 +18583,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.5">
+    <row r="34" spans="1:9" ht="16">
       <c r="A34" s="3" t="s">
         <v>454</v>
       </c>
@@ -16644,7 +18596,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.5">
+    <row r="35" spans="1:9" ht="16">
       <c r="A35" s="3" t="s">
         <v>460</v>
       </c>
@@ -16657,7 +18609,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.5">
+    <row r="36" spans="1:9" ht="16">
       <c r="A36" s="3" t="s">
         <v>465</v>
       </c>
@@ -16670,7 +18622,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.5">
+    <row r="37" spans="1:9" ht="16">
       <c r="A37" s="3" t="s">
         <v>466</v>
       </c>
@@ -16683,7 +18635,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="15.5">
+    <row r="38" spans="1:9" ht="16">
       <c r="A38" s="3" t="s">
         <v>470</v>
       </c>
@@ -16696,7 +18648,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="15.5">
+    <row r="39" spans="1:9" ht="16">
       <c r="A39" s="3" t="s">
         <v>475</v>
       </c>
@@ -16721,7 +18673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.5">
+    <row r="40" spans="1:9" ht="16">
       <c r="A40" s="3" t="s">
         <v>481</v>
       </c>
@@ -16746,7 +18698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.5">
+    <row r="41" spans="1:9" ht="16">
       <c r="A41" s="3" t="s">
         <v>237</v>
       </c>
@@ -16771,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.5">
+    <row r="42" spans="1:9" ht="16">
       <c r="A42" s="3" t="s">
         <v>242</v>
       </c>
@@ -16796,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.5">
+    <row r="43" spans="1:9" ht="16">
       <c r="A43" s="3" t="s">
         <v>497</v>
       </c>
@@ -16821,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.5">
+    <row r="44" spans="1:9" ht="16">
       <c r="A44" s="3" t="s">
         <v>504</v>
       </c>
@@ -16846,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.5">
+    <row r="45" spans="1:9" ht="16">
       <c r="A45" s="3" t="s">
         <v>509</v>
       </c>
@@ -16871,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.5">
+    <row r="46" spans="1:9" ht="16">
       <c r="A46" s="3" t="s">
         <v>515</v>
       </c>
@@ -16884,7 +18836,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="15.5">
+    <row r="47" spans="1:9" ht="16">
       <c r="A47" s="3" t="s">
         <v>519</v>
       </c>
@@ -16909,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.5">
+    <row r="48" spans="1:9" ht="16">
       <c r="A48" s="3" t="s">
         <v>118</v>
       </c>
@@ -16934,7 +18886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.5">
+    <row r="49" spans="1:9" ht="16">
       <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
@@ -16959,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.5">
+    <row r="50" spans="1:9" ht="16">
       <c r="A50" s="3" t="s">
         <v>135</v>
       </c>
@@ -16984,7 +18936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.5">
+    <row r="51" spans="1:9" ht="16">
       <c r="A51" s="3" t="s">
         <v>140</v>
       </c>
@@ -17009,7 +18961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.5">
+    <row r="52" spans="1:9" ht="16">
       <c r="A52" s="3" t="s">
         <v>141</v>
       </c>
@@ -17034,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.5">
+    <row r="53" spans="1:9" ht="16">
       <c r="A53" s="3" t="s">
         <v>546</v>
       </c>
@@ -17047,7 +18999,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.5">
+    <row r="54" spans="1:9" ht="16">
       <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
@@ -17072,7 +19024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.5">
+    <row r="55" spans="1:9" ht="16">
       <c r="A55" s="3" t="s">
         <v>150</v>
       </c>
@@ -17097,7 +19049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.5">
+    <row r="56" spans="1:9" ht="16">
       <c r="A56" s="3" t="s">
         <v>153</v>
       </c>
@@ -17122,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.5">
+    <row r="57" spans="1:9" ht="16">
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
@@ -17147,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.5">
+    <row r="58" spans="1:9" ht="16">
       <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
@@ -17172,7 +19124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.5">
+    <row r="59" spans="1:9" ht="16">
       <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
@@ -17197,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.5">
+    <row r="60" spans="1:9" ht="16">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -17222,7 +19174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.5">
+    <row r="61" spans="1:9" ht="16">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -17247,7 +19199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.5">
+    <row r="62" spans="1:9" ht="16">
       <c r="A62" s="3" t="s">
         <v>584</v>
       </c>
@@ -17260,7 +19212,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="15.5">
+    <row r="63" spans="1:9" ht="16">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -17285,7 +19237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.5">
+    <row r="64" spans="1:9" ht="16">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -17310,7 +19262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.5">
+    <row r="65" spans="1:9" ht="16">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -17335,7 +19287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.5">
+    <row r="66" spans="1:9" ht="16">
       <c r="A66" s="3" t="s">
         <v>78</v>
       </c>
@@ -17360,7 +19312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.5">
+    <row r="67" spans="1:9" ht="16">
       <c r="A67" s="3" t="s">
         <v>601</v>
       </c>
@@ -17385,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.5">
+    <row r="68" spans="1:9" ht="16">
       <c r="A68" s="3" t="s">
         <v>605</v>
       </c>
@@ -17410,7 +19362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.5">
+    <row r="69" spans="1:9" ht="16">
       <c r="A69" s="3" t="s">
         <v>608</v>
       </c>
@@ -17435,7 +19387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.5">
+    <row r="70" spans="1:9" ht="16">
       <c r="A70" s="3" t="s">
         <v>613</v>
       </c>
@@ -17460,7 +19412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.5">
+    <row r="71" spans="1:9" ht="16">
       <c r="A71" s="3" t="s">
         <v>617</v>
       </c>
@@ -17485,7 +19437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.5">
+    <row r="72" spans="1:9" ht="16">
       <c r="A72" s="3" t="s">
         <v>621</v>
       </c>
@@ -17510,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.5">
+    <row r="73" spans="1:9" ht="16">
       <c r="A73" s="3" t="s">
         <v>626</v>
       </c>
@@ -17535,7 +19487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.5">
+    <row r="74" spans="1:9" ht="16">
       <c r="A74" s="3" t="s">
         <v>631</v>
       </c>
@@ -17560,7 +19512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.5">
+    <row r="75" spans="1:9" ht="16">
       <c r="A75" s="3" t="s">
         <v>635</v>
       </c>
@@ -17585,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.5">
+    <row r="76" spans="1:9" ht="16">
       <c r="A76" s="3" t="s">
         <v>638</v>
       </c>
@@ -17615,7 +19567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1279C7CF-AEDB-064B-BAFF-ECC2404D8DDE}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -17623,9 +19575,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17726,7 +19678,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37.5">
+    <row r="17" spans="1:3" ht="42">
       <c r="B17" s="13" t="s">
         <v>695</v>
       </c>
